--- a/Structural/Behavioral Model/CSPEC/Server System CSPEC.xlsx
+++ b/Structural/Behavioral Model/CSPEC/Server System CSPEC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/UberSEA-master/Structural/Behavioral Model/CSPEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16360" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,10 @@
     <t>State: 0</t>
   </si>
   <si>
-    <t>انتخاب راننده نهایی</t>
+    <t>Register driver</t>
   </si>
   <si>
-    <t xml:space="preserve">ثبت راننده </t>
+    <t>Assign driver</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -394,7 +394,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
